--- a/aivd_2022/exercise8/export/[128, 126, 164, 75, 8]-20221230-143113.xlsx
+++ b/aivd_2022/exercise8/export/[128, 126, 164, 75, 8]-20221230-143113.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sander/Code/aivd_2022/aivd_2022/exercise8/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFAA401-2BBB-1947-8D87-94785B471630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1939A861-ADB5-0B44-9E12-1A473868B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="25580" windowHeight="28260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="15540" yWindow="520" windowWidth="35640" windowHeight="28260" firstSheet="1" activeTab="3" xr2:uid="{ABBB4BDC-A31E-304C-A02B-3BE45D6927A5}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11680" yWindow="7700" windowWidth="22880" windowHeight="21100" firstSheet="1" activeTab="3" xr2:uid="{ABBB4BDC-A31E-304C-A02B-3BE45D6927A5}"/>
   </bookViews>
   <sheets>
     <sheet name="words_df" sheetId="1" r:id="rId1"/>
@@ -4029,7 +4029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4041,6 +4041,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4074,12 +4081,17 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4111,25 +4123,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4432,9 +4447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L520"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -12738,9 +12753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A151485F-2661-9341-BBF0-134D721E85C6}">
   <dimension ref="A1:X520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -13191,10 +13206,10 @@
       <c r="I14" t="s">
         <v>695</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>728</v>
       </c>
     </row>
@@ -13220,10 +13235,10 @@
       <c r="I15" t="s">
         <v>699</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>732</v>
       </c>
     </row>
@@ -13249,10 +13264,10 @@
       <c r="I16" t="s">
         <v>703</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>736</v>
       </c>
     </row>
@@ -13278,10 +13293,10 @@
       <c r="I17" t="s">
         <v>707</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>712</v>
       </c>
     </row>
@@ -13307,10 +13322,10 @@
       <c r="I18" t="s">
         <v>711</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>668</v>
       </c>
     </row>
@@ -13336,10 +13351,10 @@
       <c r="I19" t="s">
         <v>715</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="7" t="s">
         <v>672</v>
       </c>
     </row>
@@ -13365,10 +13380,10 @@
       <c r="I20" t="s">
         <v>719</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="7" t="s">
         <v>684</v>
       </c>
     </row>
@@ -26260,8 +26275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA62287-DD96-E648-8A7A-6A9135B8F19E}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="I36" sqref="I36"/>
@@ -26269,73 +26284,73 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="4" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="4"/>
-    <col min="11" max="11" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>128</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>128</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>126</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>126</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>164</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>164</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>75</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>75</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>8</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>645</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -26346,22 +26361,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>650</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -26372,16 +26387,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>686</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -26392,16 +26407,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>694</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -26412,16 +26427,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>710</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -26432,16 +26447,16 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>718</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -26452,16 +26467,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>726</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -26472,16 +26487,16 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>730</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -26492,16 +26507,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>738</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -26512,16 +26527,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>744</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -26532,16 +26547,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>750</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -26552,16 +26567,16 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>765</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -26572,334 +26587,334 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="7" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="7" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>886</v>
       </c>
     </row>
